--- a/cea/databases/CH/components/ENERGY_CARRIERS.xlsx
+++ b/cea/databases/CH/components/ENERGY_CARRIERS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathiasniffeler/Documents/GitHub/CityEnergyAnalyst/cea/databases/SG/components/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276FF709-D20A-6A49-8940-20D036F3435C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5507ED2D-9D79-2047-BE7A-B8F420829D5F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="2400" windowWidth="24680" windowHeight="16940" xr2:uid="{6334EB5C-C0D6-A34E-ABB5-EA8E490BB8B2}"/>
   </bookViews>
@@ -99,9 +99,6 @@
     <t>voltage</t>
   </si>
   <si>
-    <t>Sulight</t>
-  </si>
-  <si>
     <t>V</t>
   </si>
   <si>
@@ -142,9 +139,6 @@
   </si>
   <si>
     <t>Infrared light</t>
-  </si>
-  <si>
-    <t>ultraviolet</t>
   </si>
   <si>
     <t>chemical composition</t>
@@ -225,6 +219,12 @@
   </si>
   <si>
     <t>T60H</t>
+  </si>
+  <si>
+    <t>Sunlight</t>
+  </si>
+  <si>
+    <t>Ultraviolet</t>
   </si>
 </sst>
 </file>
@@ -702,7 +702,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -731,13 +731,13 @@
         <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1</v>
@@ -771,7 +771,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>11</v>
@@ -849,7 +849,7 @@
         <v>23</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="13">
         <v>230</v>
@@ -861,7 +861,7 @@
         <v>0.40570000000000001</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.2">
@@ -878,7 +878,7 @@
         <v>23</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" s="11">
         <v>22000</v>
@@ -890,7 +890,7 @@
         <v>0.40570000000000001</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -907,7 +907,7 @@
         <v>23</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" s="11">
         <v>66000</v>
@@ -919,21 +919,21 @@
         <v>0.40570000000000001</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -944,21 +944,21 @@
         <v>2.7E-2</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -969,21 +969,21 @@
         <v>2.8799999999999999E-2</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -994,21 +994,21 @@
         <v>2.8799999999999999E-2</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -1019,21 +1019,21 @@
         <v>0.41760000000000003</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="C13" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -1044,21 +1044,21 @@
         <v>0.3024</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="11"/>
@@ -1069,21 +1069,21 @@
         <v>0.24060000000000001</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="11"/>
@@ -1094,21 +1094,21 @@
         <v>0.12959999999999999</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="C16" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>34</v>
-      </c>
       <c r="D16" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="13"/>
@@ -1119,21 +1119,21 @@
         <v>1.9300000000000001E-2</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="D17" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="12"/>
@@ -1144,24 +1144,24 @@
         <v>0</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="D18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="F18" s="12">
         <v>200</v>
@@ -1169,24 +1169,24 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="D19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="F19" s="12">
         <v>1500</v>
@@ -1194,7 +1194,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/cea/databases/CH/components/ENERGY_CARRIERS.xlsx
+++ b/cea/databases/CH/components/ENERGY_CARRIERS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathiasniffeler/Documents/GitHub/CityEnergyAnalyst/cea/databases/SG/components/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathiasniffeler/Documents/GitHub/CityEnergyAnalyst/cea/databases/CH/components/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5507ED2D-9D79-2047-BE7A-B8F420829D5F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6EC0E18-F136-FD46-B76D-2B1DDD772316}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="2400" windowWidth="24680" windowHeight="16940" xr2:uid="{6334EB5C-C0D6-A34E-ABB5-EA8E490BB8B2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{6334EB5C-C0D6-A34E-ABB5-EA8E490BB8B2}"/>
   </bookViews>
   <sheets>
     <sheet name="ENERGY_CARRIERS" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="66">
   <si>
     <t>code</t>
   </si>
@@ -225,6 +225,9 @@
   </si>
   <si>
     <t>Ultraviolet</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -701,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DDCB6DC-A8A3-8E46-8CC9-FE356D9D4D97}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H19" sqref="E2:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -762,8 +765,12 @@
       <c r="F2" s="11">
         <v>100</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -785,8 +792,12 @@
       <c r="F3" s="11">
         <v>60</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -808,8 +819,12 @@
       <c r="F4" s="12">
         <v>10</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -831,8 +846,12 @@
       <c r="F5" s="11">
         <v>0</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.2">
@@ -935,8 +954,12 @@
       <c r="D9" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="G9" s="6">
         <v>0.21</v>
       </c>
@@ -960,8 +983,12 @@
       <c r="D10" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="G10" s="6">
         <v>0.21</v>
       </c>
@@ -985,8 +1012,12 @@
       <c r="D11" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="E11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="G11" s="6">
         <v>0.21</v>
       </c>
@@ -1010,8 +1041,12 @@
       <c r="D12" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="G12" s="6">
         <v>0.21</v>
       </c>
@@ -1035,8 +1070,12 @@
       <c r="D13" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="G13" s="6">
         <v>0.08</v>
       </c>
@@ -1060,8 +1099,12 @@
       <c r="D14" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="11"/>
+      <c r="E14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="G14" s="6">
         <v>0.09</v>
       </c>
@@ -1085,8 +1128,12 @@
       <c r="D15" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="11"/>
+      <c r="E15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="G15" s="6">
         <v>0.17</v>
       </c>
@@ -1110,8 +1157,12 @@
       <c r="D16" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="13"/>
+      <c r="E16" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>65</v>
+      </c>
       <c r="G16" s="10">
         <v>0.2261</v>
       </c>
@@ -1135,8 +1186,12 @@
       <c r="D17" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="12"/>
+      <c r="E17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>65</v>
+      </c>
       <c r="G17" s="6">
         <v>0</v>
       </c>
@@ -1166,8 +1221,12 @@
       <c r="F18" s="12">
         <v>200</v>
       </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0</v>
+      </c>
       <c r="I18" s="9" t="s">
         <v>36</v>
       </c>
@@ -1191,8 +1250,12 @@
       <c r="F19" s="12">
         <v>1500</v>
       </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="G19" s="6">
+        <v>0</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0</v>
+      </c>
       <c r="I19" s="9" t="s">
         <v>36</v>
       </c>

--- a/cea/databases/CH/components/ENERGY_CARRIERS.xlsx
+++ b/cea/databases/CH/components/ENERGY_CARRIERS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathiasniffeler/Documents/GitHub/CityEnergyAnalyst/cea/databases/CH/components/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6EC0E18-F136-FD46-B76D-2B1DDD772316}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2AA1E5-DEC9-434C-B40F-A397EE551083}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{6334EB5C-C0D6-A34E-ABB5-EA8E490BB8B2}"/>
+    <workbookView xWindow="38400" yWindow="14860" windowWidth="25600" windowHeight="16000" xr2:uid="{6334EB5C-C0D6-A34E-ABB5-EA8E490BB8B2}"/>
   </bookViews>
   <sheets>
     <sheet name="ENERGY_CARRIERS" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="68">
   <si>
     <t>code</t>
   </si>
@@ -228,6 +228,12 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Warm water (room temperature)</t>
+  </si>
+  <si>
+    <t>T30H</t>
   </si>
 </sst>
 </file>
@@ -702,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DDCB6DC-A8A3-8E46-8CC9-FE356D9D4D97}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H19" sqref="E2:H19"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -802,10 +808,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>11</v>
@@ -816,8 +822,8 @@
       <c r="E4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="12">
-        <v>10</v>
+      <c r="F4" s="11">
+        <v>30</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -829,10 +835,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>11</v>
@@ -843,8 +849,8 @@
       <c r="E5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="11">
-        <v>0</v>
+      <c r="F5" s="12">
+        <v>10</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -854,128 +860,126 @@
       </c>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="13">
-        <v>230</v>
-      </c>
-      <c r="G6" s="10">
-        <v>0.21</v>
-      </c>
-      <c r="H6" s="10">
-        <v>0.40570000000000001</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>49</v>
-      </c>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="11">
-        <v>22000</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0.18</v>
+      <c r="F7" s="13">
+        <v>230</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0.21</v>
       </c>
       <c r="H7" s="10">
         <v>0.40570000000000001</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="11">
-        <v>66000</v>
-      </c>
-      <c r="G8" s="6">
+        <v>22000</v>
+      </c>
+      <c r="G8" s="5">
         <v>0.18</v>
       </c>
       <c r="H8" s="10">
         <v>0.40570000000000001</v>
       </c>
       <c r="I8" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="11">
+        <v>66000</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.18</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0.40570000000000001</v>
+      </c>
+      <c r="I9" s="9" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="6">
-        <v>0.21</v>
-      </c>
-      <c r="H9" s="6">
-        <v>2.7E-2</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>33</v>
@@ -993,18 +997,18 @@
         <v>0.21</v>
       </c>
       <c r="H10" s="6">
-        <v>2.8799999999999999E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>33</v>
@@ -1030,10 +1034,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>33</v>
@@ -1051,18 +1055,18 @@
         <v>0.21</v>
       </c>
       <c r="H12" s="6">
-        <v>0.41760000000000003</v>
+        <v>2.8799999999999999E-2</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>33</v>
@@ -1077,21 +1081,21 @@
         <v>65</v>
       </c>
       <c r="G13" s="6">
-        <v>0.08</v>
+        <v>0.21</v>
       </c>
       <c r="H13" s="6">
-        <v>0.3024</v>
+        <v>0.41760000000000003</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>33</v>
@@ -1099,28 +1103,28 @@
       <c r="D14" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="11" t="s">
+      <c r="E14" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G14" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="H14" s="15">
-        <v>0.24060000000000001</v>
+        <v>0.08</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0.3024</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>33</v>
@@ -1135,76 +1139,76 @@
         <v>65</v>
       </c>
       <c r="G15" s="6">
-        <v>0.17</v>
-      </c>
-      <c r="H15" s="6">
-        <v>0.12959999999999999</v>
+        <v>0.09</v>
+      </c>
+      <c r="H15" s="15">
+        <v>0.24060000000000001</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="A16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" s="10">
+      <c r="E16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0.12959999999999999</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="10">
         <v>0.2261</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H17" s="10">
         <v>1.9300000000000001E-2</v>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="I17" s="14" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G17" s="6">
-        <v>0</v>
-      </c>
-      <c r="H17" s="6">
-        <v>0</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>25</v>
@@ -1216,10 +1220,10 @@
         <v>34</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="12">
-        <v>200</v>
+        <v>65</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="G18" s="6">
         <v>0</v>
@@ -1233,7 +1237,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>25</v>
@@ -1248,15 +1252,44 @@
         <v>35</v>
       </c>
       <c r="F19" s="12">
+        <v>200</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="12">
         <v>1500</v>
       </c>
-      <c r="G19" s="6">
-        <v>0</v>
-      </c>
-      <c r="H19" s="6">
-        <v>0</v>
-      </c>
-      <c r="I19" s="9" t="s">
+      <c r="G20" s="6">
+        <v>0</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0</v>
+      </c>
+      <c r="I20" s="9" t="s">
         <v>36</v>
       </c>
     </row>

--- a/cea/databases/CH/components/ENERGY_CARRIERS.xlsx
+++ b/cea/databases/CH/components/ENERGY_CARRIERS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathiasniffeler/Documents/GitHub/CityEnergyAnalyst/cea/databases/CH/components/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathiasniffeler/Documents/CEA_Testing/reference-case-open/baseline/inputs/technology/components/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2AA1E5-DEC9-434C-B40F-A397EE551083}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69700BCC-7DBE-DB49-B184-2352627DF711}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="14860" windowWidth="25600" windowHeight="16000" xr2:uid="{6334EB5C-C0D6-A34E-ABB5-EA8E490BB8B2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="87">
   <si>
     <t>code</t>
   </si>
@@ -36,16 +36,7 @@
     <t>Hot water (high temperature)</t>
   </si>
   <si>
-    <t>T100H</t>
-  </si>
-  <si>
-    <t>T10C</t>
-  </si>
-  <si>
     <t>Cold water</t>
-  </si>
-  <si>
-    <t>T0I</t>
   </si>
   <si>
     <t>E230AC</t>
@@ -218,9 +209,6 @@
     <t>mean_qual</t>
   </si>
   <si>
-    <t>T60H</t>
-  </si>
-  <si>
     <t>Sunlight</t>
   </si>
   <si>
@@ -233,7 +221,76 @@
     <t>Warm water (room temperature)</t>
   </si>
   <si>
-    <t>T30H</t>
+    <t>Hot air</t>
+  </si>
+  <si>
+    <t>Warm air</t>
+  </si>
+  <si>
+    <t>Room temperature air</t>
+  </si>
+  <si>
+    <t>Cold air</t>
+  </si>
+  <si>
+    <t>T10A</t>
+  </si>
+  <si>
+    <t>T100A</t>
+  </si>
+  <si>
+    <t>T25A</t>
+  </si>
+  <si>
+    <t>T35A</t>
+  </si>
+  <si>
+    <t>subtype</t>
+  </si>
+  <si>
+    <t>air</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>fossil</t>
+  </si>
+  <si>
+    <t>biofuel</t>
+  </si>
+  <si>
+    <t>T100W</t>
+  </si>
+  <si>
+    <t>T60W</t>
+  </si>
+  <si>
+    <t>T10W</t>
+  </si>
+  <si>
+    <t>T0W</t>
+  </si>
+  <si>
+    <t>T30W</t>
+  </si>
+  <si>
+    <t>T0B</t>
+  </si>
+  <si>
+    <t>brine</t>
+  </si>
+  <si>
+    <t>Cold brine</t>
+  </si>
+  <si>
+    <t>Fresh water</t>
+  </si>
+  <si>
+    <t>T20W</t>
   </si>
 </sst>
 </file>
@@ -294,13 +351,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FF5B9BD5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,15 +402,9 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -365,10 +416,7 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -392,6 +440,16 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -708,589 +766,831 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DDCB6DC-A8A3-8E46-8CC9-FE356D9D4D97}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="106.83203125" customWidth="1"/>
+    <col min="1" max="1" width="37.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="106.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="8">
+        <v>100</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="8">
+        <v>35</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="8">
+        <v>25</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="9">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="8">
+        <v>100</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="8">
+        <v>60</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="8">
+        <v>30</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="8">
+        <v>20</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="9">
+        <v>10</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D13" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="G13" s="10">
+        <v>230</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0.21</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0.40570000000000001</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="8">
+        <v>22000</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0.40570000000000001</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="8">
+        <v>66000</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0.40570000000000001</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0.21</v>
+      </c>
+      <c r="I16" s="4">
+        <v>2.7E-2</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0.21</v>
+      </c>
+      <c r="I17" s="4">
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0.21</v>
+      </c>
+      <c r="I18" s="4">
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0.21</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0.41760000000000003</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0.3024</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="I21" s="12">
+        <v>0.24060000000000001</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="B22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0.17</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0.12959999999999999</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0.2261</v>
+      </c>
+      <c r="I23" s="7">
+        <v>1.9300000000000001E-2</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="11">
-        <v>100</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="C24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="11">
-        <v>60</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0</v>
-      </c>
-      <c r="H3" s="6">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="C25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="9">
+        <v>200</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="11">
-        <v>30</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="12">
-        <v>10</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="11">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="10" t="s">
+      <c r="C26" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="13">
-        <v>230</v>
-      </c>
-      <c r="G7" s="10">
-        <v>0.21</v>
-      </c>
-      <c r="H7" s="10">
-        <v>0.40570000000000001</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="11">
-        <v>22000</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0.18</v>
-      </c>
-      <c r="H8" s="10">
-        <v>0.40570000000000001</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="11">
-        <v>66000</v>
-      </c>
-      <c r="G9" s="6">
-        <v>0.18</v>
-      </c>
-      <c r="H9" s="10">
-        <v>0.40570000000000001</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="D26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="9">
+        <v>1500</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0</v>
+      </c>
+      <c r="J26" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0.21</v>
-      </c>
-      <c r="H10" s="6">
-        <v>2.7E-2</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0.21</v>
-      </c>
-      <c r="H11" s="6">
-        <v>2.8799999999999999E-2</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0.21</v>
-      </c>
-      <c r="H12" s="6">
-        <v>2.8799999999999999E-2</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="6">
-        <v>0.21</v>
-      </c>
-      <c r="H13" s="6">
-        <v>0.41760000000000003</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="6">
-        <v>0.08</v>
-      </c>
-      <c r="H14" s="6">
-        <v>0.3024</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G15" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="H15" s="15">
-        <v>0.24060000000000001</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" s="6">
-        <v>0.17</v>
-      </c>
-      <c r="H16" s="6">
-        <v>0.12959999999999999</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G17" s="10">
-        <v>0.2261</v>
-      </c>
-      <c r="H17" s="10">
-        <v>1.9300000000000001E-2</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G18" s="6">
-        <v>0</v>
-      </c>
-      <c r="H18" s="6">
-        <v>0</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="12">
-        <v>200</v>
-      </c>
-      <c r="G19" s="6">
-        <v>0</v>
-      </c>
-      <c r="H19" s="6">
-        <v>0</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="12">
-        <v>1500</v>
-      </c>
-      <c r="G20" s="6">
-        <v>0</v>
-      </c>
-      <c r="H20" s="6">
-        <v>0</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/cea/databases/CH/components/ENERGY_CARRIERS.xlsx
+++ b/cea/databases/CH/components/ENERGY_CARRIERS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathiasniffeler/Documents/CEA_Testing/reference-case-open/baseline/inputs/technology/components/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69700BCC-7DBE-DB49-B184-2352627DF711}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FF28BB-24EF-3D4D-ACC6-D52964163BC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="14860" windowWidth="25600" windowHeight="16000" xr2:uid="{6334EB5C-C0D6-A34E-ABB5-EA8E490BB8B2}"/>
   </bookViews>
